--- a/Output_testing/R1_201907/Country/HKD/MN/ETHIOPIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/ETHIOPIA_201907_HKD_MN.xlsx
@@ -553,8 +553,10 @@
       <c r="F7" s="8" t="n">
         <v>0.612127</v>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0.07238</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H7" s="9" t="n">
         <v>-79.05448007558175</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/ETHIOPIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/ETHIOPIA_201907_HKD_MN.xlsx
@@ -812,136 +812,441 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>790.065058</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>71.95660453072189</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>1211.030359</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>72.79916008202096</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>921.008935</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>73.52345160731886</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>677.471903</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>82.69339687030802</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>13.42059998861762</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>KNITTED OR CROCHETED FABRICS (INCLUDING TUBULAR KNIT FABRICS, N.E.S., PILE FABRICS AND OPEN-WORK FABRICS), N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>1.027724</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>0.09360182264222046</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>2.811808</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>0.1690273569036986</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>19.190178</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>1.53193749799923</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>13.997243</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>1.70852778596951</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>256.7113552630003</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>32.239761</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>2.936294560747415</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>2.161535</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>0.1299372318112887</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>6.918216</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>0.5522759877296729</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>11.751857</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>1.434452071828737</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>770.3667331003342</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>741</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>HEATING AND COOLING EQUIPMENT AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>0.741632</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>0.06754547614903927</v>
+      </c>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F21" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>0.715829</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>0.05714409148551361</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>11.281472</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>1.377036061932841</v>
+      </c>
+      <c r="K21" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>2.784867</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0.2536368003629112</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>3.139453</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0.1887232139297517</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>11.925456</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>0.9520001965140656</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>11.035043</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>1.346956510283371</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>119.6081775517734</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>1.594753</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0.1452450146772373</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>4.164011</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0.2503128853207356</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>15.093737</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>1.204921689378723</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>9.053302</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>1.10506176264664</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>23.84875661528385</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>3.068269</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.2794481502393864</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>5.789889</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.3480499502227031</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>3.973199</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.3171774923147165</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>8.322938000000001</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>1.015912264572495</v>
+      </c>
+      <c r="K24" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>1.466885</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.1335992052404474</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>1.152159</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.06926020215562671</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>8.042583</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.6420333609449135</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>7.984875</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.9746477077659719</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>288.2234451735802</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>6.053002</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.5512881081467453</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>6.35881</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.3822497294811052</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>14.54928</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>1.161458095953577</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>6.887418</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.8406902006764156</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>101.4723231505352</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>DYEING AND TANNING EXTRACTS, AND SYNTHETIC TANNING MATERIALS</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>1.389143</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.1265187119408344</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>12.08193</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.7262859676747143</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>5.919882</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.4725797342541937</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>4.835316</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.5902070672019447</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>49.89119261572952</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>257.543252</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>23.45621761913188</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>414.543879</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>24.91964465140459</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>245.336396</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>19.58502024610653</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>56.63619</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>6.913111696814046</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-59.72779677108547</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -973,136 +1278,581 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>43.6446532191213</v>
+      </c>
+      <c r="K31" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>0.5541156888568924</v>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>42.25338491295938</v>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>0.4995185403462304</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>1.252596588879943</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>4.055694324870492</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>14.10196186791932</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>7.828016057468834</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MACHINERY AND EQUIPMENT SPECIALIZED FOR PARTICULAR INDUSTRIES, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>2.221151</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>49.15626713076825</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>0.713419</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>75.37968838820245</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>62.89675181784173</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>26.17904454467782</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>1.148155680880884</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>0.8696855776525357</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>4.287508964642958</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>2.581000347967007</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD, CUT TO SIZE OR SHAPE, AND ARTICLES OF PAPER OR PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>22.49802944526507</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="n">
+        <v>2.197911</v>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>48.64194295914774</v>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>LIVE ANIMALS OTHER THAN ANIMALS OF DIVISION 03</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1134,136 +1884,441 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>790.065058</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>72.25395499412942</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>1211.030359</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>72.8406015561638</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>921.008935</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>73.55939687643027</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>677.471903</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>82.70070333560247</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>13.42059998861762</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>KNITTED OR CROCHETED FABRICS (INCLUDING TUBULAR KNIT FABRICS, N.E.S., PILE FABRICS AND OPEN-WORK FABRICS), N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>1.027724</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>0.09398861889976996</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>2.811808</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>0.1691235770088848</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>19.190178</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>1.532686455024827</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>13.997243</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>1.70867874480595</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>256.7113552630003</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>32.239761</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>2.948428381597264</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>2.161535</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>0.130011199566222</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>6.918216</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>0.5525459928582234</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>11.720267</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>1.430722543457351</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>768.0271126387645</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>741</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>HEATING AND COOLING EQUIPMENT AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>0.741632</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>0.06782459824999144</v>
+      </c>
+      <c r="E47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F47" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>0.715829</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>0.05717202896262695</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>11.281472</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>1.377157731456364</v>
+      </c>
+      <c r="K47" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>2.759829</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>0.2523951139698336</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>3.139453</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>0.1888306460509659</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>11.925456</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>0.9524656249251334</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>11.00446</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>1.34334217817518</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>118.9995458596209</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>1.594753</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>0.1458452191018842</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>4.164011</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>0.2504553778296182</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>14.933488</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>1.192711958371402</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>9.053302</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>1.10515940158424</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>26.2443184630863</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>3.068269</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.2806029300891857</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>5.789889</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.3482480802972304</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>3.973199</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.317332558896441</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>8.322938000000001</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>1.016002026608936</v>
+      </c>
+      <c r="K50" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>1.466885</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.1341512850091942</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>1.152159</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.06929962905112286</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>8.042583</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.6423472480303692</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>7.984875</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.9747338238274789</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>288.2234451735802</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>6.001122</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.5488216375496003</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>6.350579</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.3819722529267668</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>14.523035</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>1.159929784411144</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>6.887418</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.8407644807762434</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>102.7947286581587</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>DYEING AND TANNING EXTRACTS, AND SYNTHETIC TANNING MATERIALS</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>1.389143</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.1270415325751692</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>12.08193</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.7266994114715354</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>5.919882</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.4728107762598805</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>4.835316</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.5902592155912508</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>49.89119261572952</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>253.101619</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>23.14694568882869</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>413.605676</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>24.87739966466339</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>244.910763</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>19.56060069582968</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>56.625983</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>6.912476518114537</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-59.61724516588485</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1295,136 +2350,499 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>LEATHER</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>124.400686</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>75.79158435724671</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>106.166149</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>76.8114020240383</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>53.592416</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>60.20109607111367</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>25.813244</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>42.85294988133167</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-21.41860049472967</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>ORES AND CONCENTRATES OF BASE METALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>9.092983</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>15.095396176118</v>
+      </c>
+      <c r="K58" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>3.684315</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>2.244682727241306</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>6.125412</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>4.431746730258328</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>8.726848</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>9.802988072902071</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>6.345839</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>10.53482160638159</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>22.47836019201759</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>0.8925</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>0.6457253743512369</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>3.73532</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>4.195936196949066</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>5.034512</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>8.357868170810413</v>
+      </c>
+      <c r="K60" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>21.910839</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>13.349260810399</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>5.199635</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>3.761945385842905</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>9.854996</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>11.07025219718478</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>5.001</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>8.30223440171021</v>
+      </c>
+      <c r="K61" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>071</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>COFFEE AND COFFEE SUBSTITUTES</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>4.277337</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>2.605983604140837</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>3.498824</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>2.531405531864529</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>7.42763</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>8.343558670888919</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>3.734811</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>6.200215230571028</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>10.08406308858163</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE ANIMAL MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>0.1133211973642001</v>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>0.1411371175367703</v>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.3119217532015508</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>1.450405</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>2.407838889704559</v>
+      </c>
+      <c r="K63" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>1.312942</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>2.179634521065828</v>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE VEGETABLE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.1747516436493342</v>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.2400383693273198</v>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.1982233086113702</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>0.9112749999999999</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>1.512821166650364</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>447.4339643043799</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>MEAT AND EDIBLE MEAT OFFAL, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.4134582456875695</v>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>9.389217</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>5.720415659958618</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>15.807285</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>11.43659946678061</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>5.230973</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>5.876023729148574</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>1.290731</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>2.142761709968771</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-70.32667234048814</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
